--- a/MySQL/Exhaustive List.xlsx
+++ b/MySQL/Exhaustive List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="129">
   <si>
     <t>Topic</t>
   </si>
@@ -787,12 +787,35 @@
 WHERE (id+2)%2=1 AND description &lt;&gt; 'boring'
 ORDER BY rating DESC;</t>
   </si>
+  <si>
+    <t>https://leetcode.com/problems/duplicate-emails/description/</t>
+  </si>
+  <si>
+    <t>Suggested Solution:
+SELECT Email
+FROM Person
+GROUP BY Email
+HAVING COUNT(Email) &gt; 1;</t>
+  </si>
+  <si>
+    <t>Hard Way :)
+SELECT DISTINCT(p1.Email) from Person p1,  Person p2
+WHERE p1.Email = p2.Email AND p1.Id&lt;&gt;p2.Id;</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combine-two-tables/description/</t>
+  </si>
+  <si>
+    <t>SELECT FirstName, LastName, City, State
+FROM Person LEFT JOIN Address
+ON Person.PersonId = Address.PersonId;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,16 +872,35 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -894,7 +936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -950,17 +992,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1267,7 +1312,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>527049</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>164596</xdr:rowOff>
+      <xdr:rowOff>62996</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1311,7 +1356,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>241114</xdr:rowOff>
+      <xdr:rowOff>126814</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1336,6 +1381,94 @@
         <a:xfrm>
           <a:off x="609600" y="6254750"/>
           <a:ext cx="8458200" cy="4584514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542011</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C45630-8679-4AC2-B5B6-0712FD6F0749}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673100" y="11372851"/>
+          <a:ext cx="8219161" cy="3225800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>655</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A54ACD-C752-4A29-81AA-491637357720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16478250"/>
+          <a:ext cx="8350905" cy="5226050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1612,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -3081,24 +3214,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE1F944-BB59-4556-A64F-E6C0CCFD897C}">
   <dimension ref="A1:R244"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="16"/>
-    <col min="2" max="2" width="49.7265625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="21"/>
+    <col min="2" max="2" width="49.7265625" style="23" customWidth="1"/>
     <col min="3" max="11" width="8.7265625" style="16"/>
     <col min="12" max="12" width="22.453125" style="16" customWidth="1"/>
     <col min="13" max="13" width="8.7265625" style="16"/>
-    <col min="14" max="14" width="64.7265625" style="22" customWidth="1"/>
+    <col min="14" max="14" width="66.7265625" style="20" customWidth="1"/>
     <col min="15" max="15" width="8.7265625" style="16"/>
     <col min="17" max="17" width="8.7265625" style="16"/>
     <col min="19" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="17" customFormat="1" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -3108,1237 +3241,1258 @@
       <c r="L1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="21"/>
-    </row>
-    <row r="2" spans="1:14" ht="57" x14ac:dyDescent="0.4">
-      <c r="A2" s="16">
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="58.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>121</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L3" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L4" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L5" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L6" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L7" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L8" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L9" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L10" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L11" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L12" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L13" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L14" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L15" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L16" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L17" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L18" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L19" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="57" x14ac:dyDescent="0.4">
-      <c r="A20" s="16">
+    <row r="20" spans="1:14" ht="58.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="21">
         <v>2</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="22" t="s">
         <v>122</v>
       </c>
       <c r="L20" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="N20" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L21" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L22" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L23" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L24" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L25" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L26" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L27" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L28" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L29" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L30" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L31" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L32" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L33" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L34" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L35" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L36" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L37" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L38" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L39" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L40" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L41" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="78" x14ac:dyDescent="0.45">
+      <c r="A42" s="21">
+        <v>3</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="L42" s="16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="43" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="N42" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L43" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="117" x14ac:dyDescent="0.45">
       <c r="L44" s="16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="45" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="N44" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L45" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L46" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L47" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L48" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L49" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L50" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L51" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L52" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="58.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="21">
+        <v>4</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>127</v>
+      </c>
       <c r="L53" s="16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="54" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="N53" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L54" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L55" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L56" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L57" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L58" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L59" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L60" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L61" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L62" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L63" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L64" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L65" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L66" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L67" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L68" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L69" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L70" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L71" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L73" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L74" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L75" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L76" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L77" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L78" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L79" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L80" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L81" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L82" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L83" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L84" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L85" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="86" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L86" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="87" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L87" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="88" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L88" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L89" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="90" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L90" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="91" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L91" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="92" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L92" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="93" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L93" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="94" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L94" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="95" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L95" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="96" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L96" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="97" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L97" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="98" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L98" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L99" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L100" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="101" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L101" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="102" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L102" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="103" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L103" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="104" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L104" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="105" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L105" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="106" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L106" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="107" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L107" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="108" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L108" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="109" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L109" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="110" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L110" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="111" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L111" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="112" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L112" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="113" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L113" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="114" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L114" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="115" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L115" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="116" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L116" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="117" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L117" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="118" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L118" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="119" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L119" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="120" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L120" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="121" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L121" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="122" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L122" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="123" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L123" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="124" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L124" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="125" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L125" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="126" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="126" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L126" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="127" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L127" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="128" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L128" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="129" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L129" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="130" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="130" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L130" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="131" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L131" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="132" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="132" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L132" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="133" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L133" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="134" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L134" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="135" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L135" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="136" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="136" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L136" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="137" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L137" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="138" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="138" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L138" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="139" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L139" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="140" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="140" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L140" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="141" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L141" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="142" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L142" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="143" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="143" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L143" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="144" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L144" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="145" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L145" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="146" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="146" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L146" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="147" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L147" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="148" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L148" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="149" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L149" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="150" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L150" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="151" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L151" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="152" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="152" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L152" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="153" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="153" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L153" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="154" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="154" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L154" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="155" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="155" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L155" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="156" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="156" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L156" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="157" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="157" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L157" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="158" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="158" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L158" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="159" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L159" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="160" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L160" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="161" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="161" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L161" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="162" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="162" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L162" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="163" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="163" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L163" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="164" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="164" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L164" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="165" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="165" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L165" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="166" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L166" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="167" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="167" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L167" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="168" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="168" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L168" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="169" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="169" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L169" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="170" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="170" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L170" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="171" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L171" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="172" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="172" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L172" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="173" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="173" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L173" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="174" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="174" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L174" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="175" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L175" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="176" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L176" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="177" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="177" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L177" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="178" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="178" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L178" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="179" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L179" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="180" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="180" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L180" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="181" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L181" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="182" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="182" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L182" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="183" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="183" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L183" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="184" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="184" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L184" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="185" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="185" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L185" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="186" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="186" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L186" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="187" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="187" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L187" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="188" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L188" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="189" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="189" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L189" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="190" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="190" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L190" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="191" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="191" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L191" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="192" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="192" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L192" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="193" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L193" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="194" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="194" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L194" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="195" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="195" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L195" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="196" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="196" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L196" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="197" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="197" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L197" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="198" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L198" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="199" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="199" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L199" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="200" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="200" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L200" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="201" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L201" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="202" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="202" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L202" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="203" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="203" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L203" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="204" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="204" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L204" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="205" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="205" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L205" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="206" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="206" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L206" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="207" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="207" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L207" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="208" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="208" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L208" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="209" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="209" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L209" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="210" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="210" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L210" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="211" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="211" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L211" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="212" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="212" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L212" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="213" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="213" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L213" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="214" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="214" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L214" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="215" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="215" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L215" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="216" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="216" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L216" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="217" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="217" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L217" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="218" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L218" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="219" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="219" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L219" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="220" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="220" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L220" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="221" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="221" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L221" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="222" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L222" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="223" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L223" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="224" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="224" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L224" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="225" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="225" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L225" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="226" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="226" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L226" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="227" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="227" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L227" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="228" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="228" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L228" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="229" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="229" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L229" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="230" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="230" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L230" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="231" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="231" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L231" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="232" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="232" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L232" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="233" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="233" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L233" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="234" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="234" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L234" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="235" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="235" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L235" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="236" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="236" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L236" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="237" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="237" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L237" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="238" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="238" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L238" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="239" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="239" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L239" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="240" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="240" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L240" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="241" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="241" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L241" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="242" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="242" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L242" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="243" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="243" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L243" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="244" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="244" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L244" s="16" t="s">
         <v>119</v>
       </c>
@@ -4346,9 +4500,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F578D9F1-7A3F-4F24-B69C-5145A8CC103A}"/>
+    <hyperlink ref="B42" r:id="rId2" xr:uid="{DBB76FA3-C7F6-4B58-966D-87BD06426FDD}"/>
+    <hyperlink ref="B53" r:id="rId3" xr:uid="{53475170-E1EB-47DF-BCC7-B412EBB817DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/MySQL/Exhaustive List.xlsx
+++ b/MySQL/Exhaustive List.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="133">
   <si>
     <t>Topic</t>
   </si>
@@ -809,6 +809,23 @@
     <t>SELECT FirstName, LastName, City, State
 FROM Person LEFT JOIN Address
 ON Person.PersonId = Address.PersonId;</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/employees-earning-more-than-their-managers/description/</t>
+  </si>
+  <si>
+    <t>SELECT EmpTable.Name AS Employee 
+FROM (SELECT * FROM Employee WHERE ManagerId &lt;&gt; 'NULL') AS EmpTable 
+LEFT JOIN Employee 
+ON EmpTable.ManagerId = Employee.Id 
+WHERE EmpTable.Salary &gt; Employee.Salary</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/customers-who-never-order/description/</t>
+  </si>
+  <si>
+    <t>SELECT Name AS Customers FROM Customers
+WHERE Customers.Id &lt;&gt; ALL(SELECT Orders.CustomerId FROM Orders)</t>
   </si>
 </sst>
 </file>
@@ -936,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,6 +1022,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1399,7 +1419,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>542011</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>139701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1443,7 +1463,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>655</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1469,6 +1489,94 @@
         <a:xfrm>
           <a:off x="609600" y="16478250"/>
           <a:ext cx="8350905" cy="5226050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>136084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF26C72-B379-4FE2-8680-DE56984FAC20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="603250" y="22720300"/>
+          <a:ext cx="8356600" cy="2809434"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14866</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0816F2EB-D5D2-4082-B182-B6CD15CA3A64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="26289000"/>
+          <a:ext cx="8365116" cy="4413250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3212,10 +3320,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE1F944-BB59-4556-A64F-E6C0CCFD897C}">
-  <dimension ref="A1:R244"/>
+  <dimension ref="A1:R245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -3461,7 +3569,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="78" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.45">
       <c r="A42" s="21">
         <v>3</v>
       </c>
@@ -3471,26 +3579,26 @@
       <c r="L42" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="N42" s="20" t="s">
+    </row>
+    <row r="43" spans="1:14" ht="78" x14ac:dyDescent="0.45">
+      <c r="L43" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N43" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="L43" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="117" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L44" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="N44" s="20" t="s">
+    </row>
+    <row r="45" spans="1:14" ht="117" x14ac:dyDescent="0.45">
+      <c r="L45" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N45" s="20" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="L45" s="16" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.45">
@@ -3528,7 +3636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="58.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" ht="30" x14ac:dyDescent="0.45">
       <c r="A53" s="21">
         <v>4</v>
       </c>
@@ -3538,18 +3646,18 @@
       <c r="L53" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="N53" s="20" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L54" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="58.5" x14ac:dyDescent="0.45">
       <c r="L55" s="16" t="s">
         <v>119</v>
+      </c>
+      <c r="N55" s="20" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.45">
@@ -3597,162 +3705,175 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L65" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L66" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L67" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L68" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L69" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L70" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L71" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L73" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L74" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L75" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L76" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.45">
+      <c r="A77" s="21">
+        <v>5</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>129</v>
+      </c>
       <c r="L77" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:14" ht="117" x14ac:dyDescent="0.45">
       <c r="L78" s="16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="79" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="N78" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L79" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L80" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L81" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L82" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L83" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="12:12" x14ac:dyDescent="0.45">
-      <c r="L84" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L85" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" ht="30" x14ac:dyDescent="0.45">
+      <c r="A86" s="21">
+        <v>6</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>131</v>
+      </c>
       <c r="L86" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" ht="58.5" x14ac:dyDescent="0.45">
       <c r="L87" s="16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="88" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="N87" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L88" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L89" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L90" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L91" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L92" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L93" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L94" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L95" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L96" s="16" t="s">
         <v>119</v>
       </c>
@@ -4494,6 +4615,11 @@
     </row>
     <row r="244" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L244" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="245" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L245" s="16" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4502,9 +4628,11 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F578D9F1-7A3F-4F24-B69C-5145A8CC103A}"/>
     <hyperlink ref="B42" r:id="rId2" xr:uid="{DBB76FA3-C7F6-4B58-966D-87BD06426FDD}"/>
     <hyperlink ref="B53" r:id="rId3" xr:uid="{53475170-E1EB-47DF-BCC7-B412EBB817DB}"/>
+    <hyperlink ref="B77" r:id="rId4" xr:uid="{152A9B1D-20DA-40F6-ACDB-3BB31D2CEC02}"/>
+    <hyperlink ref="B86" r:id="rId5" xr:uid="{F76F7C23-9605-43F9-A544-767BE015149D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/MySQL/Exhaustive List.xlsx
+++ b/MySQL/Exhaustive List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="134">
   <si>
     <t>Topic</t>
   </si>
@@ -826,6 +826,10 @@
   <si>
     <t>SELECT Name AS Customers FROM Customers
 WHERE Customers.Id &lt;&gt; ALL(SELECT Orders.CustomerId FROM Orders)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deleting all data:
+TRUNCATE TABLE TABLE_NAME </t>
   </si>
 </sst>
 </file>
@@ -1857,16 +1861,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="61.26953125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1894,7 +1898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6">
@@ -1904,7 +1908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6">
@@ -1914,7 +1918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6">
@@ -1924,7 +1928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
@@ -1934,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6">
@@ -1944,7 +1948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6">
@@ -1954,7 +1958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -1964,7 +1968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -1974,7 +1978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -1984,7 +1988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
@@ -1994,7 +1998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
@@ -2004,7 +2008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6">
@@ -2014,7 +2018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6">
@@ -2024,7 +2028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6">
@@ -2034,7 +2038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6">
@@ -2044,7 +2048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6">
@@ -2054,7 +2058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6">
@@ -2064,7 +2068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6">
@@ -2074,7 +2078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6">
@@ -2084,7 +2088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6">
@@ -2094,7 +2098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6">
@@ -2104,7 +2108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6">
@@ -2114,7 +2118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6">
@@ -2124,7 +2128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6">
@@ -2134,7 +2138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6">
@@ -2144,7 +2148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6">
@@ -2154,7 +2158,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6">
@@ -2164,7 +2168,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6">
@@ -2174,7 +2178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6">
@@ -2184,7 +2188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6">
@@ -2194,7 +2198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -2204,7 +2208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6">
@@ -2212,7 +2216,7 @@
       </c>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6">
@@ -2220,7 +2224,7 @@
       </c>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6">
@@ -2228,7 +2232,7 @@
       </c>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6">
@@ -2236,7 +2240,7 @@
       </c>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6">
@@ -2246,7 +2250,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6">
@@ -2256,7 +2260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6">
@@ -2266,7 +2270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6">
@@ -2276,7 +2280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6">
@@ -2286,7 +2290,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6">
@@ -2296,7 +2300,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6">
@@ -2306,7 +2310,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6">
@@ -2316,7 +2320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6">
@@ -2326,13 +2330,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6">
@@ -2342,17 +2346,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D55" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="3:4" ht="37" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:4" ht="37.5" x14ac:dyDescent="0.3">
       <c r="D56" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="1">
         <v>47</v>
       </c>
@@ -2368,22 +2372,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECD46DF-6516-4BA8-9E42-44D413FCD08F}">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="59.36328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="56.453125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="59.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="56.42578125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -2401,7 +2405,7 @@
       </c>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2416,7 +2420,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6">
@@ -2427,7 +2431,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6">
@@ -2438,7 +2442,7 @@
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6">
@@ -2449,7 +2453,7 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
@@ -2460,7 +2464,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6">
@@ -2471,7 +2475,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6">
@@ -2482,7 +2486,7 @@
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -2493,7 +2497,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -2504,7 +2508,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -2515,7 +2519,7 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
@@ -2526,7 +2530,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
@@ -2537,7 +2541,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6">
@@ -2548,7 +2552,7 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="255" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="276" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6">
@@ -2564,7 +2568,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6">
@@ -2575,7 +2579,7 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6">
@@ -2586,7 +2590,7 @@
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6">
@@ -2597,7 +2601,7 @@
       </c>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6">
@@ -2608,7 +2612,7 @@
       </c>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6">
@@ -2619,7 +2623,7 @@
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6">
@@ -2630,7 +2634,7 @@
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6">
@@ -2641,7 +2645,7 @@
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6">
@@ -2652,7 +2656,7 @@
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6">
@@ -2663,7 +2667,7 @@
       </c>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6">
@@ -2674,7 +2678,7 @@
       </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6">
@@ -2685,7 +2689,7 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6">
@@ -2696,7 +2700,7 @@
       </c>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6">
@@ -2707,7 +2711,7 @@
       </c>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6">
@@ -2718,7 +2722,7 @@
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6">
@@ -2729,7 +2733,7 @@
       </c>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6">
@@ -2740,7 +2744,7 @@
       </c>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6">
@@ -2751,7 +2755,7 @@
       </c>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -2764,7 +2768,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6">
@@ -2775,56 +2779,56 @@
       </c>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6">
@@ -2837,7 +2841,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6">
@@ -2848,7 +2852,7 @@
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6">
@@ -2859,7 +2863,7 @@
       </c>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6">
@@ -2870,7 +2874,7 @@
       </c>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6">
@@ -2881,7 +2885,7 @@
       </c>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6">
@@ -2892,7 +2896,7 @@
       </c>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6">
@@ -2903,7 +2907,7 @@
       </c>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6">
@@ -2914,7 +2918,7 @@
       </c>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6">
@@ -2925,7 +2929,7 @@
       </c>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="1:5" ht="119" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6">
@@ -2938,7 +2942,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="136" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" ht="138" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6">
@@ -2951,7 +2955,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6">
@@ -2964,7 +2968,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" ht="69" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6">
@@ -2977,7 +2981,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C55" s="6">
         <v>50</v>
       </c>
@@ -2985,25 +2989,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D62" s="2" t="s">
         <v>53</v>
       </c>
@@ -3011,7 +3015,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="74" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="C64" s="1">
         <v>51</v>
       </c>
@@ -3022,7 +3026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="3:5" ht="148" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:6" ht="150" x14ac:dyDescent="0.3">
       <c r="C66" s="1">
         <v>52</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="3:5" ht="203.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:6" ht="206.25" x14ac:dyDescent="0.3">
       <c r="C68" s="1">
         <v>53</v>
       </c>
@@ -3044,7 +3048,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="3:5" ht="129.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:6" ht="131.25" x14ac:dyDescent="0.3">
       <c r="C70" s="1">
         <v>54</v>
       </c>
@@ -3055,7 +3059,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="3:5" ht="74" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:6" ht="75" x14ac:dyDescent="0.3">
       <c r="C72" s="1">
         <v>55</v>
       </c>
@@ -3066,7 +3070,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="3:5" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:6" ht="56.25" x14ac:dyDescent="0.3">
       <c r="C74" s="1">
         <v>56</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="3:5" ht="37" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="C76" s="1">
         <v>57</v>
       </c>
@@ -3087,8 +3091,11 @@
       <c r="E76" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="78" spans="3:5" ht="111" x14ac:dyDescent="0.45">
+      <c r="F76" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" ht="112.5" x14ac:dyDescent="0.3">
       <c r="C78" s="1">
         <v>58</v>
       </c>
@@ -3099,7 +3106,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="3:5" ht="92.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:6" ht="93.75" x14ac:dyDescent="0.3">
       <c r="C80" s="1">
         <v>59</v>
       </c>
@@ -3110,7 +3117,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="3:5" ht="129.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="3:5" ht="131.25" x14ac:dyDescent="0.3">
       <c r="C82" s="1">
         <v>60</v>
       </c>
@@ -3121,7 +3128,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="3:5" ht="296" x14ac:dyDescent="0.45">
+    <row r="84" spans="3:5" ht="300" x14ac:dyDescent="0.3">
       <c r="C84" s="1">
         <v>61</v>
       </c>
@@ -3132,7 +3139,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="3:5" ht="185" x14ac:dyDescent="0.45">
+    <row r="86" spans="3:5" ht="187.5" x14ac:dyDescent="0.3">
       <c r="C86" s="1">
         <v>62</v>
       </c>
@@ -3143,7 +3150,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="3:5" ht="129.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="3:5" ht="131.25" x14ac:dyDescent="0.3">
       <c r="C88" s="1">
         <v>63</v>
       </c>
@@ -3154,7 +3161,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="3:5" ht="92.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="3:5" ht="93.75" x14ac:dyDescent="0.3">
       <c r="C90" s="1">
         <v>64</v>
       </c>
@@ -3165,7 +3172,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="3:5" ht="37" x14ac:dyDescent="0.45">
+    <row r="92" spans="3:5" ht="37.5" x14ac:dyDescent="0.3">
       <c r="C92" s="1">
         <v>65</v>
       </c>
@@ -3176,7 +3183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="3:5" ht="240.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="3:5" ht="262.5" x14ac:dyDescent="0.3">
       <c r="C94" s="1">
         <v>66</v>
       </c>
@@ -3187,7 +3194,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="3:5" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="3:5" ht="56.25" x14ac:dyDescent="0.3">
       <c r="C96" s="1">
         <v>67</v>
       </c>
@@ -3198,7 +3205,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="3:6" ht="148" x14ac:dyDescent="0.45">
+    <row r="98" spans="3:6" ht="168.75" x14ac:dyDescent="0.3">
       <c r="C98" s="1">
         <v>68</v>
       </c>
@@ -3212,7 +3219,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="3:6" ht="129.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="3:6" ht="131.25" x14ac:dyDescent="0.3">
       <c r="C100" s="1">
         <v>69</v>
       </c>
@@ -3223,7 +3230,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="3:6" ht="222" x14ac:dyDescent="0.45">
+    <row r="102" spans="3:6" ht="225" x14ac:dyDescent="0.3">
       <c r="C102" s="1">
         <v>70</v>
       </c>
@@ -3234,7 +3241,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="3:6" ht="129.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="3:6" ht="131.25" x14ac:dyDescent="0.3">
       <c r="C104" s="1">
         <v>71</v>
       </c>
@@ -3245,7 +3252,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="3:6" ht="148" x14ac:dyDescent="0.45">
+    <row r="106" spans="3:6" ht="168.75" x14ac:dyDescent="0.3">
       <c r="C106" s="1">
         <v>72</v>
       </c>
@@ -3256,7 +3263,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="108" spans="3:6" ht="166.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="3:6" ht="168.75" x14ac:dyDescent="0.3">
       <c r="C108" s="1">
         <v>73</v>
       </c>
@@ -3267,7 +3274,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="3:6" ht="148" x14ac:dyDescent="0.45">
+    <row r="110" spans="3:6" ht="187.5" x14ac:dyDescent="0.3">
       <c r="C110" s="1">
         <v>74</v>
       </c>
@@ -3278,7 +3285,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="3:6" ht="129.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="3:6" ht="131.25" x14ac:dyDescent="0.3">
       <c r="C112" s="1">
         <v>75</v>
       </c>
@@ -3289,7 +3296,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="3:5" ht="111" x14ac:dyDescent="0.45">
+    <row r="114" spans="3:5" ht="131.25" x14ac:dyDescent="0.3">
       <c r="C114" s="1">
         <v>76</v>
       </c>
@@ -3300,7 +3307,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C116" s="1">
         <v>77</v>
       </c>
@@ -3322,24 +3329,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE1F944-BB59-4556-A64F-E6C0CCFD897C}">
   <dimension ref="A1:R245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="21"/>
-    <col min="2" max="2" width="49.7265625" style="23" customWidth="1"/>
-    <col min="3" max="11" width="8.7265625" style="16"/>
-    <col min="12" max="12" width="22.453125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="16"/>
-    <col min="14" max="14" width="66.7265625" style="20" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="16"/>
-    <col min="17" max="17" width="8.7265625" style="16"/>
-    <col min="19" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="8.7109375" style="21"/>
+    <col min="2" max="2" width="49.7109375" style="23" customWidth="1"/>
+    <col min="3" max="11" width="8.7109375" style="16"/>
+    <col min="12" max="12" width="22.42578125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="16"/>
+    <col min="14" max="14" width="66.7109375" style="20" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="16"/>
+    <col min="16" max="16" width="9.140625"/>
+    <col min="17" max="17" width="8.7109375" style="16"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="16384" width="8.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -3351,7 +3360,7 @@
       </c>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:14" ht="58.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="58.5" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -3365,92 +3374,92 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L3" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L4" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L5" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L6" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L7" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L8" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L9" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L10" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L11" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L12" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L13" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L14" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L15" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L16" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L17" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L18" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L19" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="58.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="58.5" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>2</v>
       </c>
@@ -3464,112 +3473,112 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L21" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L22" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L23" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L24" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L25" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L26" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L27" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L28" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L29" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L30" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L31" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L32" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L33" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L34" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L35" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L36" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L37" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L38" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L39" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L40" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L41" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>3</v>
       </c>
@@ -3580,7 +3589,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="78" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" ht="78" x14ac:dyDescent="0.3">
       <c r="L43" s="16" t="s">
         <v>119</v>
       </c>
@@ -3588,12 +3597,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L44" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="117" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" ht="117" x14ac:dyDescent="0.3">
       <c r="L45" s="16" t="s">
         <v>119</v>
       </c>
@@ -3601,42 +3610,42 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L46" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L47" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L48" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L49" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L50" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L51" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L52" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="30" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A53" s="21">
         <v>4</v>
       </c>
@@ -3647,12 +3656,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L54" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="58.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="58.5" x14ac:dyDescent="0.3">
       <c r="L55" s="16" t="s">
         <v>119</v>
       </c>
@@ -3660,112 +3669,112 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L56" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L57" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L58" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L59" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L60" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L61" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L62" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L63" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L64" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L65" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L66" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L67" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L68" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L69" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L70" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L71" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L72" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L73" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L74" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L75" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L76" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A77" s="21">
         <v>5</v>
       </c>
@@ -3776,7 +3785,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="117" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:14" ht="117" x14ac:dyDescent="0.3">
       <c r="L78" s="16" t="s">
         <v>119</v>
       </c>
@@ -3784,37 +3793,37 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L79" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L80" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L81" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L82" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L83" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L85" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="30" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
         <v>6</v>
       </c>
@@ -3825,7 +3834,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="58.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" ht="58.5" x14ac:dyDescent="0.3">
       <c r="L87" s="16" t="s">
         <v>119</v>
       </c>
@@ -3833,792 +3842,792 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L88" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L89" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L90" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L91" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L92" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L93" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L94" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L95" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="L96" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L97" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L98" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L99" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L100" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L101" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L102" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L103" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L104" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L105" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L106" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L107" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L108" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L109" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L110" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L111" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L112" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L113" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L114" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L115" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L116" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L117" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L118" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L119" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L120" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L121" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L122" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L123" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L124" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L125" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="126" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L126" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L127" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L128" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L129" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="130" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L130" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L131" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="132" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L132" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L133" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L134" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L135" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="136" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L136" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L137" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="138" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L138" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L139" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="140" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L140" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L141" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L142" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="143" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L143" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L144" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L145" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="146" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L146" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L147" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L148" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L149" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L150" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L151" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="152" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L152" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="153" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L153" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="154" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L154" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="155" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L155" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="156" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L156" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="157" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L157" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="158" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L158" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L159" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L160" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="161" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L161" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="162" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L162" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="163" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L163" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="164" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L164" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="165" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L165" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L166" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="167" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L167" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="168" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L168" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="169" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L169" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="170" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L170" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L171" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="172" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L172" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="173" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L173" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="174" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="174" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L174" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L175" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="176" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L176" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="177" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="177" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L177" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="178" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="178" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L178" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="179" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L179" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="180" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="180" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L180" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="181" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L181" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="182" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="182" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L182" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="183" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="183" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L183" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="184" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="184" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L184" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="185" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="185" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L185" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="186" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="186" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L186" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="187" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="187" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L187" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="188" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L188" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="189" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="189" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L189" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="190" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="190" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L190" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="191" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="191" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L191" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="192" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="192" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L192" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="193" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L193" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="194" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="194" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L194" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="195" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="195" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L195" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="196" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="196" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L196" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="197" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="197" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L197" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="198" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L198" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="199" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="199" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L199" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="200" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="200" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L200" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="201" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L201" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="202" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="202" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L202" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="203" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="203" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L203" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="204" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="204" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L204" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="205" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="205" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L205" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="206" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="206" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L206" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="207" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="207" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L207" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="208" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="208" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L208" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="209" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="209" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L209" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="210" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="210" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L210" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="211" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="211" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L211" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="212" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="212" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L212" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="213" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="213" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L213" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="214" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="214" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L214" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="215" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="215" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L215" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="216" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="216" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L216" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="217" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="217" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L217" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="218" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L218" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="219" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="219" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L219" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="220" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="220" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L220" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="221" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="221" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L221" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="222" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L222" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="223" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L223" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="224" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="224" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L224" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="225" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="225" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L225" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="226" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="226" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L226" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="227" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="227" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L227" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="228" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="228" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L228" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="229" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="229" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L229" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="230" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="230" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L230" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="231" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="231" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L231" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="232" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="232" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L232" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="233" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="233" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L233" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="234" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="234" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L234" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="235" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="235" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L235" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="236" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="236" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L236" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="237" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="237" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L237" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="238" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="238" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L238" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="239" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="239" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L239" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="240" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="240" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L240" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="241" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="241" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L241" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="242" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="242" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L242" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="243" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="243" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L243" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="244" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="244" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L244" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="245" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="245" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L245" s="16" t="s">
         <v>119</v>
       </c>
